--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsPA.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>occupation</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>inn keeper</t>
-  </si>
-  <si>
-    <t>junior</t>
   </si>
   <si>
     <t>marchant</t>
@@ -500,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>64008.84</v>
+        <v>74699.95999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -753,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>10691.12</v>
+        <v>612574.61</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -764,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>612574.61</v>
+        <v>3906.5714</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -775,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>3906.5714</v>
+        <v>856.5599999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -786,7 +783,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>856.5599999999999</v>
+        <v>1769.01</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -797,7 +794,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>1769.01</v>
+        <v>7083.53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -808,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>7083.53</v>
+        <v>7717.74</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -819,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>7717.74</v>
+        <v>461.11</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -830,7 +827,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>461.11</v>
+        <v>224.12</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -841,7 +838,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>224.12</v>
+        <v>56.21</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -852,7 +849,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>56.21</v>
+        <v>1241.76</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -863,7 +860,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>1241.76</v>
+        <v>588.95</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -874,7 +871,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>588.95</v>
+        <v>1917.65</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -885,7 +882,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>1917.65</v>
+        <v>528.33</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -896,7 +893,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>528.33</v>
+        <v>1192.25</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -907,7 +904,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>1192.25</v>
+        <v>2137.39</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -918,7 +915,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>2137.39</v>
+        <v>714.8099999999999</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -929,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>714.8099999999999</v>
+        <v>2054.64</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -940,7 +937,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>2054.64</v>
+        <v>5576.53</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -951,17 +948,6 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>5576.53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42">
         <v>1136.06</v>
       </c>
     </row>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsPA.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>occupation</t>
   </si>
@@ -40,19 +40,19 @@
     <t>clerk</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>conveyancer</t>
   </si>
   <si>
     <t>cordwainder</t>
   </si>
   <si>
+    <t>doctor</t>
+  </si>
+  <si>
     <t>druggist</t>
   </si>
   <si>
-    <t>esquier</t>
+    <t>esq</t>
   </si>
   <si>
     <t>estate</t>
@@ -91,12 +91,6 @@
     <t>mariner</t>
   </si>
   <si>
-    <t>pennsylvania</t>
-  </si>
-  <si>
-    <t>physician</t>
-  </si>
-  <si>
     <t>post master</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
   </si>
   <si>
     <t>widow</t>
-  </si>
-  <si>
-    <t>yeoman</t>
   </si>
 </sst>
 </file>
@@ -497,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2898.86</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>108.4</v>
+        <v>281.25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>281.25</v>
+        <v>1769.01</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -662,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1685.81</v>
+        <v>2821.87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -772,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>856.5599999999999</v>
+        <v>7083.53</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -783,7 +774,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>1769.01</v>
+        <v>7717.74</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -794,7 +785,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>7083.53</v>
+        <v>461.11</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -805,7 +796,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>7717.74</v>
+        <v>224.12</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -816,7 +807,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>461.11</v>
+        <v>56.21</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -827,7 +818,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>224.12</v>
+        <v>1241.76</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -838,7 +829,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>56.21</v>
+        <v>588.95</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -849,7 +840,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>1241.76</v>
+        <v>1917.65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -860,7 +851,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>588.95</v>
+        <v>528.33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -871,7 +862,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>1917.65</v>
+        <v>1192.25</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -882,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>528.33</v>
+        <v>2137.39</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -893,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>1192.25</v>
+        <v>714.8099999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -904,7 +895,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>2137.39</v>
+        <v>2054.64</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -915,40 +906,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>714.8099999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39">
-        <v>2054.64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40">
         <v>5576.53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41">
-        <v>1136.06</v>
       </c>
     </row>
   </sheetData>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsPA.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsPA.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>occupation</t>
   </si>
   <si>
     <t>6p_total</t>
+  </si>
+  <si>
+    <t># of people</t>
+  </si>
+  <si>
+    <t>average debt per person</t>
   </si>
   <si>
     <t>administer</t>
@@ -488,425 +494,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2692.48</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>897.4933333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>8696.68</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1739.336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>692.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>692.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>783.0700000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>783.0700000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>74699.95999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>1185.713650793651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1855.58</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>463.895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>108.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>108.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>281.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>1769.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1769.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>4922.43</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2461.215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>41442.24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1973.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>1979.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>989.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>8787.959999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>1255.422857142857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>2821.87</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>403.1242857142857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>3107.18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3107.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>7540.66</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>1256.776666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>142.22</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>142.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>4539.96</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1513.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>2291.76</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>763.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>846.23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>846.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>1668.68</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>556.2266666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>612574.61</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>237</v>
+      </c>
+      <c r="E23">
+        <v>2584.702995780591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>3906.5714</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>781.3142800000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>7083.53</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>7083.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>7717.74</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>1286.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>461.11</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>461.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>224.12</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>224.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>56.21</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>56.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>1241.76</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1241.76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>588.95</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>196.3166666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>1917.65</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>958.8249999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>528.33</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>528.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>1192.25</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>596.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>2137.39</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>534.3475000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>714.8099999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>714.8099999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>2054.64</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1027.32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>5576.53</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>1115.306</v>
       </c>
     </row>
   </sheetData>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsPA.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>occupation</t>
   </si>
@@ -25,118 +25,121 @@
     <t># of people</t>
   </si>
   <si>
+    <t>% of total people</t>
+  </si>
+  <si>
     <t>average debt per person</t>
   </si>
   <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>broker</t>
+  </si>
+  <si>
+    <t>esq</t>
+  </si>
+  <si>
+    <t>executers</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>printer</t>
+  </si>
+  <si>
+    <t>gentleman</t>
+  </si>
+  <si>
+    <t>post master</t>
+  </si>
+  <si>
+    <t>widow</t>
+  </si>
+  <si>
+    <t>druggist</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>mariner</t>
+  </si>
+  <si>
+    <t>furrier</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
     <t>administer</t>
   </si>
   <si>
-    <t>attorney</t>
+    <t>hatter</t>
+  </si>
+  <si>
+    <t>taylor</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>estate</t>
+  </si>
+  <si>
+    <t>silversmith</t>
+  </si>
+  <si>
+    <t>clerk</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>inn keeper</t>
+  </si>
+  <si>
+    <t>ship wright</t>
+  </si>
+  <si>
+    <t>tanner</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>book binder</t>
+  </si>
+  <si>
+    <t>treasurer</t>
   </si>
   <si>
     <t>blacksmith</t>
   </si>
   <si>
-    <t>book binder</t>
-  </si>
-  <si>
-    <t>broker</t>
-  </si>
-  <si>
-    <t>clerk</t>
+    <t>shopkeeper</t>
+  </si>
+  <si>
+    <t>spinster</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>cordwainder</t>
+  </si>
+  <si>
+    <t>reverend</t>
+  </si>
+  <si>
+    <t>goldsmith</t>
   </si>
   <si>
     <t>conveyancer</t>
   </si>
   <si>
-    <t>cordwainder</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>druggist</t>
-  </si>
-  <si>
-    <t>esq</t>
-  </si>
-  <si>
-    <t>estate</t>
-  </si>
-  <si>
-    <t>executers</t>
-  </si>
-  <si>
-    <t>farmer</t>
-  </si>
-  <si>
-    <t>furrier</t>
-  </si>
-  <si>
-    <t>gentleman</t>
-  </si>
-  <si>
-    <t>goldsmith</t>
-  </si>
-  <si>
-    <t>guardian</t>
-  </si>
-  <si>
-    <t>hatter</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>inn keeper</t>
-  </si>
-  <si>
-    <t>marchant</t>
-  </si>
-  <si>
-    <t>mariner</t>
-  </si>
-  <si>
-    <t>post master</t>
-  </si>
-  <si>
-    <t>printer</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>reverend</t>
-  </si>
-  <si>
     <t>sheriff</t>
-  </si>
-  <si>
-    <t>ship wright</t>
-  </si>
-  <si>
-    <t>shopkeeper</t>
-  </si>
-  <si>
-    <t>silversmith</t>
-  </si>
-  <si>
-    <t>spinster</t>
-  </si>
-  <si>
-    <t>tanner</t>
-  </si>
-  <si>
-    <t>taylor</t>
-  </si>
-  <si>
-    <t>treasurer</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>widow</t>
   </si>
 </sst>
 </file>
@@ -494,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,166 +516,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>2692.48</v>
+        <v>612574.61</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="E2">
-        <v>897.4933333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>57.80487804878048</v>
+      </c>
+      <c r="F2">
+        <v>2584.702995780591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>8696.68</v>
+        <v>74699.95999999999</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>1739.336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>15.36585365853658</v>
+      </c>
+      <c r="F3">
+        <v>1185.713650793651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>692.25</v>
+        <v>41442.24</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>692.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>5.121951219512195</v>
+      </c>
+      <c r="F4">
+        <v>1973.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8787.959999999999</v>
+      </c>
+      <c r="D5">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>783.0700000000001</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
-        <v>783.0700000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1.707317073170732</v>
+      </c>
+      <c r="F5">
+        <v>1255.422857142857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>74699.95999999999</v>
+        <v>8696.68</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>1185.713650793651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1.219512195121951</v>
+      </c>
+      <c r="F6">
+        <v>1739.336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1855.58</v>
+        <v>7717.74</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>463.895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1.463414634146342</v>
+      </c>
+      <c r="F7">
+        <v>1286.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>108.4</v>
+        <v>7540.66</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>108.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1.463414634146342</v>
+      </c>
+      <c r="F8">
+        <v>1256.776666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>281.25</v>
+        <v>7083.53</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>281.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F9">
+        <v>7083.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>1769.01</v>
+        <v>5576.53</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>1769.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1.219512195121951</v>
+      </c>
+      <c r="F10">
+        <v>1115.306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>4922.43</v>
@@ -681,66 +714,78 @@
         <v>2</v>
       </c>
       <c r="E11">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="F11">
         <v>2461.215</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>41442.24</v>
+        <v>4539.96</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>1973.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.7317073170731708</v>
+      </c>
+      <c r="F12">
+        <v>1513.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>1979.6</v>
+        <v>3906.5714</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>989.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>1.219512195121951</v>
+      </c>
+      <c r="F13">
+        <v>781.3142800000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>8787.959999999999</v>
+        <v>3107.18</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1255.422857142857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F14">
+        <v>3107.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2821.87</v>
@@ -749,270 +794,318 @@
         <v>7</v>
       </c>
       <c r="E15">
+        <v>1.707317073170732</v>
+      </c>
+      <c r="F15">
         <v>403.1242857142857</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>3107.18</v>
+        <v>2692.48</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>3107.18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.7317073170731708</v>
+      </c>
+      <c r="F16">
+        <v>897.4933333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>7540.66</v>
+        <v>2291.76</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>1256.776666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.7317073170731708</v>
+      </c>
+      <c r="F17">
+        <v>763.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>142.22</v>
+        <v>2137.39</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>142.22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="F18">
+        <v>534.3475000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>4539.96</v>
+        <v>2054.64</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1513.32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="F19">
+        <v>1027.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>2291.76</v>
+        <v>1979.6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>763.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="F20">
+        <v>989.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>846.23</v>
+        <v>1917.65</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>846.23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="F21">
+        <v>958.8249999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>1668.68</v>
+        <v>1855.58</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>556.2266666666666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="F22">
+        <v>463.895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>612574.61</v>
+        <v>1769.01</v>
       </c>
       <c r="D23">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>2584.702995780591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F23">
+        <v>1769.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>3906.5714</v>
+        <v>1668.68</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>781.3142800000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.7317073170731708</v>
+      </c>
+      <c r="F24">
+        <v>556.2266666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>7083.53</v>
+        <v>1241.76</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>7083.53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F25">
+        <v>1241.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>7717.74</v>
+        <v>1192.25</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>1286.29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="F26">
+        <v>596.125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>461.11</v>
+        <v>846.23</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>461.11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F27">
+        <v>846.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>224.12</v>
+        <v>783.0700000000001</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>224.12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F28">
+        <v>783.0700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>56.21</v>
+        <v>714.8099999999999</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>56.21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F29">
+        <v>714.8099999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>1241.76</v>
+        <v>692.25</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1241.76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F30">
+        <v>692.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>588.95</v>
@@ -1021,126 +1114,150 @@
         <v>3</v>
       </c>
       <c r="E31">
+        <v>0.7317073170731708</v>
+      </c>
+      <c r="F31">
         <v>196.3166666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
-        <v>1917.65</v>
+        <v>528.33</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>958.8249999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F32">
+        <v>528.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>528.33</v>
+        <v>461.11</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>528.33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F33">
+        <v>461.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <v>1192.25</v>
+        <v>281.25</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>596.125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F34">
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>2137.39</v>
+        <v>224.12</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>534.3475000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F35">
+        <v>224.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <v>714.8099999999999</v>
+        <v>142.22</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>714.8099999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F36">
+        <v>142.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37">
-        <v>2054.64</v>
+        <v>108.4</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1027.32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F37">
+        <v>108.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38">
-        <v>5576.53</v>
+        <v>56.21</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1115.306</v>
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="F38">
+        <v>56.21</v>
       </c>
     </row>
   </sheetData>
